--- a/Teradata_COVID_Guide.xlsx
+++ b/Teradata_COVID_Guide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\du250001\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77E260FC-5220-4052-9100-0B5689AC72C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1AFE2D-FDD7-4C02-8939-F9906E2C2699}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{D6F84112-F2F5-4240-B7DD-7CC3963DE379}"/>
+    <workbookView xWindow="-165" yWindow="-165" windowWidth="21930" windowHeight="13230" xr2:uid="{D6F84112-F2F5-4240-B7DD-7CC3963DE379}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>Source</t>
   </si>
@@ -42,14 +42,143 @@
     <t>File</t>
   </si>
   <si>
-    <t>Details</t>
+    <t>Definitive_Healthcare__USA_Hospital_Beds.csv</t>
+  </si>
+  <si>
+    <t>National ICU Data.xlsx</t>
+  </si>
+  <si>
+    <t>README.md</t>
+  </si>
+  <si>
+    <t>StateDatabySeason59.csv</t>
+  </si>
+  <si>
+    <t>drive-thru-testing-data.csv</t>
+  </si>
+  <si>
+    <t>grocery_visits.csv</t>
+  </si>
+  <si>
+    <t>healthcare_services_per_state.csv</t>
+  </si>
+  <si>
+    <t>healthcare_visits.csv</t>
+  </si>
+  <si>
+    <t>hospital_visits.csv</t>
+  </si>
+  <si>
+    <t>states_daily_4pm_et.csv</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Testing Center Locations</t>
+  </si>
+  <si>
+    <t>Mobility Tracking</t>
+  </si>
+  <si>
+    <t>Healthcare Sytem Threshold Analysis</t>
+  </si>
+  <si>
+    <t>ICU Bed Data</t>
+  </si>
+  <si>
+    <t>Acute Care Bed Data</t>
+  </si>
+  <si>
+    <t>Healthcare Visit Mobility Tracking</t>
+  </si>
+  <si>
+    <t>Hospital Visit Mobility Tracking</t>
+  </si>
+  <si>
+    <t>Healthcare Service Analysis</t>
+  </si>
+  <si>
+    <t>https://github.com/YalePrivacyLab/tracker-profiles/blob/master/trackers/SafeGraph.md</t>
+  </si>
+  <si>
+    <t>COVID Tracking Project</t>
+  </si>
+  <si>
+    <t>https://github.com/COVID19Tracking/covid-tracking-data/blob/master/data/states_daily_4pm_et.csv</t>
+  </si>
+  <si>
+    <t>JHU CSSE</t>
+  </si>
+  <si>
+    <t>BankerL (from DXY)</t>
+  </si>
+  <si>
+    <t>DS4C</t>
+  </si>
+  <si>
+    <t>Alipay</t>
+  </si>
+  <si>
+    <t>ECDC</t>
+  </si>
+  <si>
+    <t>Wiki_covid19 pandemic in Italy</t>
+  </si>
+  <si>
+    <t>ChaTo</t>
+  </si>
+  <si>
+    <t>Robert Koch Institute</t>
+  </si>
+  <si>
+    <t>https://github.com/CSSEGISandData/COVID-19/tree/master/csse_covid_19_data/</t>
+  </si>
+  <si>
+    <t>https://github.com/BlankerL/DXY-COVID-19-Data/tree/master/csv</t>
+  </si>
+  <si>
+    <t>https://github.com/ThisIsIsaac/Data-Science-for-COVID-19</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1IghzvjYdnabxCpWLxIU-8c3dv4F8j8BfLMsM_-feZks/edit#gid=0</t>
+  </si>
+  <si>
+    <t>https://www.ecdc.europa.eu/en/publications-data/download-todays-data-geographic-distribution-covid-19-cases-worldwide</t>
+  </si>
+  <si>
+    <t>https://github.com/jingjtang/COVID19_pandemic_data/blob/master/data/Italy_covid19_daily_confirmedcases_byregion.csv</t>
+  </si>
+  <si>
+    <t>https://github.com/datadista/datasets/tree/master/COVID%2019</t>
+  </si>
+  <si>
+    <t>https://github.com/jingjtang/COVID19_pandemic_data/blob/master/data/Germany_covid19_confirmedcases_bystate.csv</t>
+  </si>
+  <si>
+    <t>International Case Data</t>
+  </si>
+  <si>
+    <t>Case Data, US</t>
+  </si>
+  <si>
+    <t>Test Analysis Data, US</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/kweinmeister/covidnet-hospitalization-rates</t>
+  </si>
+  <si>
+    <t>COVID-NET Hospitalization Rates</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,23 +187,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F8FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -82,15 +243,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFEAECEF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -403,36 +614,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72725A0-0C17-4642-9C17-45A29B5D7FE4}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.90625" customWidth="1"/>
-    <col min="2" max="2" width="51.90625" customWidth="1"/>
-    <col min="3" max="3" width="37.36328125" customWidth="1"/>
-    <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="1" max="2" width="35.90625" customWidth="1"/>
+    <col min="3" max="3" width="41.36328125" customWidth="1"/>
+    <col min="4" max="4" width="59.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" tooltip="Definitive_Healthcare__USA_Hospital_Beds.csv" display="https://github.com/mccushjack/covid19-data/blob/master/Definitive_Healthcare__USA_Hospital_Beds.csv" xr:uid="{7AFB6D18-A8ED-4BB5-AABD-FB0650AE5D3F}"/>
+    <hyperlink ref="C4" r:id="rId2" tooltip="National ICU Data.xlsx" display="https://github.com/mccushjack/covid19-data/blob/master/National ICU Data.xlsx" xr:uid="{98E28A03-AAFB-46BF-BD39-B865220630D4}"/>
+    <hyperlink ref="C5" r:id="rId3" tooltip="README.md" display="https://github.com/mccushjack/covid19-data/blob/master/README.md" xr:uid="{FDD95188-83ED-4BA2-8471-7F18733A31D0}"/>
+    <hyperlink ref="C6" r:id="rId4" tooltip="StateDatabySeason59.csv" display="https://github.com/mccushjack/covid19-data/blob/master/StateDatabySeason59.csv" xr:uid="{7FE3236B-BB46-4DCA-9556-6905EBBF0E12}"/>
+    <hyperlink ref="C7" r:id="rId5" tooltip="drive-thru-testing-data.csv" display="https://github.com/mccushjack/covid19-data/blob/master/drive-thru-testing-data.csv" xr:uid="{BB2E1529-788C-42AC-B6E7-F29B83BADF8B}"/>
+    <hyperlink ref="C8" r:id="rId6" tooltip="grocery_visits.csv" display="https://github.com/mccushjack/covid19-data/blob/master/grocery_visits.csv" xr:uid="{FF020DAB-24F0-44C9-9B4F-18CD10329CF8}"/>
+    <hyperlink ref="C9" r:id="rId7" tooltip="healthcare_services_per_state.csv" display="https://github.com/mccushjack/covid19-data/blob/master/healthcare_services_per_state.csv" xr:uid="{B09CAE7D-7F9E-4CDC-B5EE-7CAD3BF0641C}"/>
+    <hyperlink ref="C10" r:id="rId8" tooltip="healthcare_visits.csv" display="https://github.com/mccushjack/covid19-data/blob/master/healthcare_visits.csv" xr:uid="{B111F7C3-2D3B-4AF8-8733-791CF8C78231}"/>
+    <hyperlink ref="C11" r:id="rId9" tooltip="hospital_visits.csv" display="https://github.com/mccushjack/covid19-data/blob/master/hospital_visits.csv" xr:uid="{64F0D267-8DFD-4B49-8064-B88AAFD85A13}"/>
+    <hyperlink ref="C12" r:id="rId10" tooltip="states_daily_4pm_et.csv" display="https://github.com/mccushjack/covid19-data/blob/master/states_daily_4pm_et.csv" xr:uid="{3D841C05-877B-433C-A52C-E79CE91E0A68}"/>
+    <hyperlink ref="D10" r:id="rId11" xr:uid="{C02810ED-985F-4A84-A6BB-DD27932680E6}"/>
+    <hyperlink ref="D11" r:id="rId12" xr:uid="{2B81B61E-875A-44F3-97CB-0394B72A7575}"/>
+    <hyperlink ref="D8" r:id="rId13" xr:uid="{947E583D-3212-4AC0-A300-D7530C31B0C6}"/>
+    <hyperlink ref="D12" r:id="rId14" xr:uid="{5BF8522E-B30F-4583-BA21-360769C4E9B7}"/>
+    <hyperlink ref="D14" r:id="rId15" xr:uid="{CEFC4565-1A2E-47E0-A7C6-BD5AC41A023B}"/>
+    <hyperlink ref="D15" r:id="rId16" xr:uid="{6F121B6F-A865-4C7F-9BE0-39A170B9FC3E}"/>
+    <hyperlink ref="D16" r:id="rId17" xr:uid="{7E521C66-5FDB-4FEA-BC26-FF60F78858AC}"/>
+    <hyperlink ref="D17" r:id="rId18" location="gid=0" display="https://docs.google.com/spreadsheets/d/1IghzvjYdnabxCpWLxIU-8c3dv4F8j8BfLMsM_-feZks/edit - gid=0" xr:uid="{B8481962-94B1-436D-877D-70DA83116D86}"/>
+    <hyperlink ref="D18" r:id="rId19" xr:uid="{2730C649-5061-4C50-BB2B-301BB2125F8D}"/>
+    <hyperlink ref="D19" r:id="rId20" xr:uid="{E9B11033-6439-42E7-A7B3-C3BF479BC042}"/>
+    <hyperlink ref="D20" r:id="rId21" display="https://github.com/datadista/datasets/tree/master/COVID 19" xr:uid="{60E024D8-BF8B-4575-9117-C14E1B117A61}"/>
+    <hyperlink ref="D21" r:id="rId22" xr:uid="{63A7A6DD-1692-49B8-B42D-F27BCDF98558}"/>
+    <hyperlink ref="D13" r:id="rId23" xr:uid="{70515BBB-EAB3-46E2-987A-770B453834C9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>